--- a/test/xls/GameStatic.xlsx
+++ b/test/xls/GameStatic.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3BD09D72-5C6A-4231-A0F8-4C2C7114EF45}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="GameStatic" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>ClassName</t>
   </si>
@@ -243,13 +242,31 @@
   <si>
     <t>click</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldPerTime</t>
+  </si>
+  <si>
+    <t>AddGoldNum</t>
+  </si>
+  <si>
+    <t>MaxGoldNum</t>
+  </si>
+  <si>
+    <t>增加金币间隔（秒）</t>
+  </si>
+  <si>
+    <t>每次增加金币</t>
+  </si>
+  <si>
+    <t>每日可获得金币上限</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +276,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -285,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -296,6 +328,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -356,7 +390,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,26 +423,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -441,23 +458,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,28 +633,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.77734375" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.88671875" customWidth="1"/>
-    <col min="14" max="14" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.75" customWidth="1"/>
+    <col min="12" max="12" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="18.875" customWidth="1"/>
+    <col min="17" max="17" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +666,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -730,11 +730,20 @@
       <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -772,11 +781,20 @@
       <c r="M5" t="s">
         <v>32</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="117" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -817,10 +835,19 @@
         <v>9</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -860,11 +887,20 @@
       <c r="M7" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -907,8 +943,17 @@
       <c r="N8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -948,11 +993,20 @@
       <c r="M9" t="b">
         <v>1</v>
       </c>
-      <c r="N9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -992,11 +1046,20 @@
       <c r="M10" t="b">
         <v>1</v>
       </c>
-      <c r="N10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>1</v>
       </c>
@@ -1010,13 +1073,13 @@
         <v>47</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1031,10 +1094,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+      <c r="P11">
+        <v>50</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>2</v>
       </c>
@@ -1048,13 +1120,13 @@
         <v>48</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1069,10 +1141,19 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>50</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>3</v>
       </c>
@@ -1109,8 +1190,17 @@
       <c r="N13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>4</v>
       </c>
@@ -1144,8 +1234,17 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>5</v>
       </c>
@@ -1177,10 +1276,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>10</v>
+      </c>
+      <c r="P15">
+        <v>50</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>6</v>
       </c>
@@ -1212,6 +1320,15 @@
         <v>0</v>
       </c>
       <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>50</v>
+      </c>
+      <c r="Q16">
         <v>0</v>
       </c>
     </row>
